--- a/варианты/ЕГКР 16.12.2023/22_12252.xlsx
+++ b/варианты/ЕГКР 16.12.2023/22_12252.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8295"/>
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="144525"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -39,8 +39,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,15 +50,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -66,15 +72,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -347,26 +424,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AT14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y14" sqref="J14:Y14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="46" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -376,85 +456,335 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1">
+        <v>6</v>
+      </c>
+      <c r="L1">
+        <v>7</v>
+      </c>
+      <c r="M1">
+        <v>8</v>
+      </c>
+      <c r="N1">
+        <v>9</v>
+      </c>
+      <c r="O1">
+        <v>10</v>
+      </c>
+      <c r="P1">
+        <v>11</v>
+      </c>
+      <c r="Q1">
+        <v>12</v>
+      </c>
+      <c r="R1">
+        <v>13</v>
+      </c>
+      <c r="S1">
+        <v>14</v>
+      </c>
+      <c r="T1">
+        <v>15</v>
+      </c>
+      <c r="U1">
+        <v>16</v>
+      </c>
+      <c r="V1">
+        <v>17</v>
+      </c>
+      <c r="W1">
+        <v>18</v>
+      </c>
+      <c r="X1">
+        <v>19</v>
+      </c>
+      <c r="Y1">
+        <v>20</v>
+      </c>
+      <c r="Z1">
+        <v>21</v>
+      </c>
+      <c r="AA1">
+        <v>22</v>
+      </c>
+      <c r="AB1">
+        <v>23</v>
+      </c>
+      <c r="AC1">
+        <v>24</v>
+      </c>
+      <c r="AD1">
+        <v>25</v>
+      </c>
+      <c r="AE1">
+        <v>26</v>
+      </c>
+      <c r="AF1">
+        <v>27</v>
+      </c>
+      <c r="AG1">
+        <v>28</v>
+      </c>
+      <c r="AH1">
+        <v>29</v>
+      </c>
+      <c r="AI1">
+        <v>30</v>
+      </c>
+      <c r="AJ1">
+        <v>31</v>
+      </c>
+      <c r="AK1">
+        <v>32</v>
+      </c>
+      <c r="AL1">
+        <v>33</v>
+      </c>
+      <c r="AM1">
+        <v>34</v>
+      </c>
+      <c r="AN1">
+        <v>35</v>
+      </c>
+      <c r="AO1">
+        <v>36</v>
+      </c>
+      <c r="AP1">
+        <v>37</v>
+      </c>
+      <c r="AQ1">
+        <v>38</v>
+      </c>
+      <c r="AR1">
+        <v>39</v>
+      </c>
+      <c r="AS1">
+        <v>40</v>
+      </c>
+      <c r="AT1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1001</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>A2</f>
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1002</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="0">A3</f>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>1003</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1003</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1</v>
+      </c>
+      <c r="P4" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>1</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1</v>
+      </c>
+      <c r="S4" s="8">
+        <v>1</v>
+      </c>
+      <c r="T4" s="8">
+        <v>1</v>
+      </c>
+      <c r="U4" s="8">
+        <v>1</v>
+      </c>
+      <c r="V4" s="8">
+        <v>1</v>
+      </c>
+      <c r="W4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>1004</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
         <v>1001</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1004</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="9">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>1005</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>1003</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>1006</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>1004</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>1007</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1007</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -464,52 +794,364 @@
       <c r="C9" s="1">
         <v>1006</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1008</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>1009</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>1010</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>1011</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>1009</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1011</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>1</v>
+      </c>
+      <c r="R12" s="8">
+        <v>1</v>
+      </c>
+      <c r="S12" s="8">
+        <v>1</v>
+      </c>
+      <c r="T12" s="8">
+        <v>1</v>
+      </c>
+      <c r="U12" s="8">
+        <v>1</v>
+      </c>
+      <c r="V12" s="8">
+        <v>1</v>
+      </c>
+      <c r="W12" s="8">
+        <v>1</v>
+      </c>
+      <c r="X12" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>1012</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>1010</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1012</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6">
+        <v>1</v>
+      </c>
+      <c r="P13" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>1</v>
+      </c>
+      <c r="R13" s="8">
+        <v>1</v>
+      </c>
+      <c r="S13" s="8">
+        <v>1</v>
+      </c>
+      <c r="T13" s="8">
+        <v>1</v>
+      </c>
+      <c r="U13" s="8">
+        <v>1</v>
+      </c>
+      <c r="V13" s="8">
+        <v>1</v>
+      </c>
+      <c r="W13" s="8">
+        <v>1</v>
+      </c>
+      <c r="X13" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f>SUM(F3:F13)</f>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f>SUM(G3:G13)</f>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f>SUM(H3:H13)</f>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f>SUM(I3:I13)</f>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f>SUM(J3:J13)</f>
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <f>SUM(K3:K13)</f>
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="G14:AT14" si="1">SUM(L2:L13)</f>
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="W14">
+        <f>SUM(W2:W13)</f>
+        <v>4</v>
+      </c>
+      <c r="X14">
+        <f>SUM(X2:X13)</f>
+        <v>4</v>
+      </c>
+      <c r="Y14">
+        <f>SUM(Y2:Y13)</f>
+        <v>4</v>
+      </c>
+      <c r="Z14">
+        <f>SUM(Z2:Z13)</f>
+        <v>3</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H3:I3 L2:AT3 F8:U8 X8:AT8 F9:AT9 M10:AT10 L11:AT11 F7:O7 V7:AT7 F6:P6 Y6:AT6 F4:AT5 J12:AT13">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>